--- a/excel/auto trader.xlsx
+++ b/excel/auto trader.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
   <si>
     <t>利用python自动化框架easytrader实现A股自动化交易</t>
   </si>
@@ -300,9 +300,6 @@
     <t>今日-上市日期</t>
   </si>
   <si>
-    <t>取自低频数据，非精确</t>
-  </si>
-  <si>
     <t>（流通市值/最小流通市值）-1</t>
   </si>
   <si>
@@ -409,6 +406,21 @@
   </si>
   <si>
     <t>换仓</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>取自腾讯高频，准确</t>
+  </si>
+  <si>
+    <t>涨跌</t>
+  </si>
+  <si>
+    <t>1.1%</t>
   </si>
 </sst>
 </file>
@@ -546,12 +558,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -570,6 +576,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1494,7 +1506,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="19" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1508,7 +1520,7 @@
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1520,7 +1532,7 @@
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1544,7 +1556,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1558,7 +1570,7 @@
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1582,728 +1594,768 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W98"/>
+  <dimension ref="A2:W100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="Y63" sqref="Y63"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="5.140625" style="7"/>
-    <col min="7" max="7" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="7"/>
-    <col min="9" max="9" width="7.28515625" style="7" customWidth="1"/>
-    <col min="10" max="16384" width="5.140625" style="7"/>
+    <col min="1" max="6" width="5.140625" style="5"/>
+    <col min="7" max="7" width="6" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="5"/>
+    <col min="9" max="9" width="7.28515625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="5.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>104</v>
+      <c r="C5" s="5" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="7" t="s">
-        <v>103</v>
+      <c r="D10" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
+      <c r="B12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="E53" s="7" t="s">
+      <c r="E53" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="G53" s="7" t="s">
+      <c r="G53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="7" t="s">
+      <c r="I53" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="7" t="s">
+      <c r="K53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="N53" s="7" t="s">
+      <c r="N53" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="P53" s="7" t="s">
+      <c r="P53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="T53" s="7" t="s">
-        <v>130</v>
+      <c r="T53" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E54" s="7" t="s">
+      <c r="E54" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="7">
         <v>50000</v>
       </c>
-      <c r="I54" s="10">
+      <c r="I54" s="8">
         <f>G54/SUM(G54:G56)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="K54" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N54" s="7" t="s">
+      <c r="N54" s="5" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E55" s="7" t="s">
+      <c r="E55" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="7">
         <v>50000</v>
       </c>
-      <c r="I55" s="10">
+      <c r="I55" s="8">
         <f>G54/SUM(G54:G56)</f>
         <v>0.27777777777777779</v>
       </c>
-      <c r="K55" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="N55" s="7" t="s">
+      <c r="K55" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="W55" s="7" t="s">
+      <c r="W55" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="7" t="s">
+      <c r="E56" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="7">
         <v>80000</v>
       </c>
-      <c r="I56" s="10">
+      <c r="I56" s="8">
         <f>G56/SUM(G54:G56)</f>
         <v>0.44444444444444442</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="5" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="I59" s="13"/>
-      <c r="L59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="L59" s="9"/>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="12"/>
+      <c r="L60" s="10"/>
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D62" s="18" t="s">
+      <c r="D62" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="18" t="s">
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="H62" s="19"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="19" t="s">
+      <c r="H62" s="17"/>
+      <c r="I62" s="18"/>
+      <c r="J62" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="K62" s="19"/>
-      <c r="L62" s="19"/>
-      <c r="M62" s="19"/>
-      <c r="N62" s="19"/>
-      <c r="O62" s="19"/>
-      <c r="P62" s="20"/>
+      <c r="K62" s="17"/>
+      <c r="L62" s="17"/>
+      <c r="M62" s="17"/>
+      <c r="N62" s="17"/>
+      <c r="O62" s="17"/>
+      <c r="P62" s="18"/>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D63" s="14" t="s">
+      <c r="D63" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="14" t="s">
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H63" s="15"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="15"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="15"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="15"/>
-      <c r="P63" s="16"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="14"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="14" t="s">
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="H64" s="15"/>
-      <c r="I64" s="16"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="15"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="15"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="15"/>
-      <c r="P64" s="16"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="14"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="14"/>
     </row>
     <row r="65" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="14" t="s">
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="H65" s="15"/>
-      <c r="I65" s="16"/>
-      <c r="J65" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="15"/>
-      <c r="M65" s="15"/>
-      <c r="N65" s="15"/>
-      <c r="O65" s="15"/>
-      <c r="P65" s="16"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="14"/>
+      <c r="J65" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="14"/>
     </row>
     <row r="66" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D66" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="14" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="15"/>
-      <c r="I66" s="16"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
-      <c r="M66" s="15"/>
-      <c r="N66" s="15"/>
-      <c r="O66" s="15"/>
-      <c r="P66" s="16"/>
+      <c r="D66" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="13"/>
+      <c r="I66" s="14"/>
+      <c r="J66" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="14"/>
+      <c r="Q66" s="5" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="67" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D67" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="15"/>
-      <c r="I67" s="16"/>
-      <c r="J67" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="K67" s="15"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="15"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="15"/>
-      <c r="P67" s="16"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D68" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="14" t="s">
-        <v>84</v>
-      </c>
-      <c r="H68" s="15"/>
-      <c r="I68" s="16"/>
-      <c r="J68" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="15"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="15"/>
-      <c r="P68" s="16"/>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="14" t="s">
+      <c r="D67" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="17">
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="15">
         <f>(9.19-9.18)/9.18</f>
         <v>1.0893246187363603E-3</v>
       </c>
-      <c r="H69" s="15"/>
-      <c r="I69" s="16"/>
-      <c r="J69" s="15" t="s">
+      <c r="H67" s="13"/>
+      <c r="I67" s="14"/>
+      <c r="J67" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
-      <c r="N69" s="15" t="s">
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="O69" s="15"/>
-      <c r="P69" s="16"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D68" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="13"/>
+      <c r="I68" s="14"/>
+      <c r="J68" s="13"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="14"/>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D69" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H69" s="13"/>
+      <c r="I69" s="14"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="14"/>
     </row>
     <row r="70" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H70" s="13"/>
+      <c r="I70" s="14"/>
+      <c r="J70" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D71" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="H71" s="13"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="13"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D72" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="14" t="s">
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="H70" s="15"/>
-      <c r="I70" s="16"/>
-      <c r="J70" s="15" t="s">
+      <c r="H72" s="13"/>
+      <c r="I72" s="14"/>
+      <c r="J72" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
-      <c r="N70" s="15"/>
-      <c r="O70" s="15"/>
-      <c r="P70" s="16"/>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="14" t="s">
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D73" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="14" t="s">
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="H71" s="15"/>
-      <c r="I71" s="16"/>
-      <c r="J71" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="K71" s="15"/>
-      <c r="L71" s="15"/>
-      <c r="M71" s="15"/>
-      <c r="N71" s="15"/>
-      <c r="O71" s="15"/>
-      <c r="P71" s="16"/>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D72" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="H72" s="15"/>
-      <c r="I72" s="16"/>
-      <c r="J72" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="K72" s="15"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="15"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="15"/>
-      <c r="P72" s="16"/>
-      <c r="Q72" s="7" t="s">
+      <c r="H73" s="13"/>
+      <c r="I73" s="14"/>
+      <c r="J73" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D74" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" s="13"/>
+      <c r="I74" s="14"/>
+      <c r="J74" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="14"/>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I75" s="14"/>
+      <c r="J75" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D76" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="I76" s="14"/>
+      <c r="J76" s="13" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D73" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14" t="s">
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D77" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H77" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="H73" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I73" s="16"/>
-      <c r="J73" s="15" t="s">
+      <c r="I77" s="14"/>
+      <c r="J77" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="14"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B79" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="15"/>
-      <c r="P73" s="16"/>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D74" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I74" s="16"/>
-      <c r="J74" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="K74" s="15"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="15"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="15"/>
-      <c r="P74" s="16"/>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D75" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="I75" s="16"/>
-      <c r="J75" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="K75" s="15"/>
-      <c r="L75" s="15"/>
-      <c r="M75" s="15"/>
-      <c r="N75" s="15"/>
-      <c r="O75" s="15"/>
-      <c r="P75" s="16"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C77" s="7" t="s">
+      <c r="C79" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="D80" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F81" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="78" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F78" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="F79" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="B84" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B82" s="8" t="s">
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="5" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B83" s="7" t="s">
+      <c r="C85" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="7" t="s">
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D85" s="7" t="s">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D86" s="7" t="s">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B90" s="5" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B88" s="7" t="s">
+      <c r="C90" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C88" s="7" t="s">
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D89" s="7" t="s">
+    <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="8" t="s">
+      <c r="B94" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B92" s="8" t="s">
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B96" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B94" s="7" t="s">
+      <c r="C96" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C94" s="7" t="s">
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C97" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C95" s="7" t="s">
+    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D98" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D99" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D96" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D97" s="7" t="s">
+    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="D100" s="5" t="s">
         <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2324,12 +2376,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/excel/auto trader.xlsx
+++ b/excel/auto trader.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
     <sheet name="界面化实现方式" sheetId="2" r:id="rId2"/>
     <sheet name="table" sheetId="3" r:id="rId3"/>
+    <sheet name="other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
   <si>
     <t>利用python自动化框架easytrader实现A股自动化交易</t>
   </si>
@@ -66,12 +67,6 @@
     <t>上市日期、</t>
   </si>
   <si>
-    <t>流通股本</t>
-  </si>
-  <si>
-    <t>每个交易日早上获取股票信息，如下（主要针对最新上市的股票）</t>
-  </si>
-  <si>
     <t>1.2</t>
   </si>
   <si>
@@ -153,9 +148,6 @@
     <t>}</t>
   </si>
   <si>
-    <t>通过easyquotation获取新浪的免费行情即可</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -300,138 +292,283 @@
     <t>今日-上市日期</t>
   </si>
   <si>
+    <t>持仓股有卖出按钮，今日买入时不可用</t>
+  </si>
+  <si>
+    <t>持仓股有换仓按钮，今日买入时不可用，直接与最小市值换仓</t>
+  </si>
+  <si>
+    <t>半仓</t>
+  </si>
+  <si>
+    <t>全仓</t>
+  </si>
+  <si>
+    <t>最小5流通市值有买入按钮，个股全仓=总仓/3</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>最小流通市值TOP100确认（作为今日对象股）</t>
+  </si>
+  <si>
+    <t>特点：</t>
+  </si>
+  <si>
+    <t>今日涨幅&gt;0.099</t>
+  </si>
+  <si>
+    <t>卖一委托量=0</t>
+  </si>
+  <si>
+    <t>未开板新股按上市天数倒序表示</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>判断买入，换仓条件</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>买入条件：流通市值最小</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>个股半仓=总仓/6</t>
+  </si>
+  <si>
+    <t>个股全仓=总仓/3</t>
+  </si>
+  <si>
+    <t>最大持股数=3</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>换仓条件：</t>
+  </si>
+  <si>
+    <t>（持仓流通市值/最小未持仓流通市值）-1 &gt; 5%</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>成交（python esaytrader+银河证券）</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>最新高频数据取得，并check</t>
+  </si>
+  <si>
+    <t>提示信息：</t>
+  </si>
+  <si>
+    <t>市值差：卖出按买一价算，买入按卖一价算</t>
+  </si>
+  <si>
+    <t>价格*股数=总价</t>
+  </si>
+  <si>
+    <t>股票信息表</t>
+  </si>
+  <si>
+    <t>成交记录表</t>
+  </si>
+  <si>
+    <t>现价*流通股本</t>
+  </si>
+  <si>
+    <t>换仓</t>
+  </si>
+  <si>
+    <t>PB</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>取自腾讯高频，准确</t>
+  </si>
+  <si>
+    <t>涨跌</t>
+  </si>
+  <si>
+    <t>1.1%</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">（持仓流通市值/最小未持仓流通市值）-1 &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个股半仓=总仓/4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个股全仓=总仓/2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大持股数=2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>现价=涨停价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯有涨停价数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每个交易日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>早上获取股票信息，如下（主要针对最新上市的股票）</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周获取一次即可</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tushare可取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>果仁比较直观，tushare也可取</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>通过easyquotation获取</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>腾讯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>的免费行情即可</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂无交易功能，此项可不表示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>去损耗后，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>精确值待定</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一下历史数据中每天NO.2~6最小流通市值与NO1的市值差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>统计一下一天当中，每分钟NO.2~6最小流通市值与NO1的市值差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的：为换仓条件的市值差寻找一个合理的量化指标（x%）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>去损耗市值差</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>（流通市值*现价/买1价）/（最小流通市值*现价/卖1价）-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大于5%标红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>54%标红</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>（流通市值/最小流通市值）-1</t>
-  </si>
-  <si>
-    <t>大于4%标红</t>
-  </si>
-  <si>
-    <t>持仓股有卖出按钮，今日买入时不可用</t>
-  </si>
-  <si>
-    <t>持仓股有换仓按钮，今日买入时不可用，直接与最小市值换仓</t>
-  </si>
-  <si>
-    <t>半仓</t>
-  </si>
-  <si>
-    <t>全仓</t>
-  </si>
-  <si>
-    <t>最小5流通市值有买入按钮，个股全仓=总仓/3</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>最小流通市值TOP100确认（作为今日对象股）</t>
-  </si>
-  <si>
-    <t>可从果仁网获取</t>
-  </si>
-  <si>
-    <t>特点：</t>
-  </si>
-  <si>
-    <t>今日涨幅&gt;0.099</t>
-  </si>
-  <si>
-    <t>卖一委托量=0</t>
-  </si>
-  <si>
-    <t>未开板新股按上市天数倒序表示</t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>判断买入，换仓条件</t>
-  </si>
-  <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>买入条件：流通市值最小</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>个股半仓=总仓/6</t>
-  </si>
-  <si>
-    <t>个股全仓=总仓/3</t>
-  </si>
-  <si>
-    <t>最大持股数=3</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>换仓条件：</t>
-  </si>
-  <si>
-    <t>（持仓流通市值/最小未持仓流通市值）-1 &gt; 5%</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>成交（python esaytrader+银河证券）</t>
-  </si>
-  <si>
-    <t>4.1</t>
-  </si>
-  <si>
-    <t>最新高频数据取得，并check</t>
-  </si>
-  <si>
-    <t>提示信息：</t>
-  </si>
-  <si>
-    <t>市值差：卖出按买一价算，买入按卖一价算</t>
-  </si>
-  <si>
-    <t>价格*股数=总价</t>
-  </si>
-  <si>
-    <t>股票信息表</t>
-  </si>
-  <si>
-    <t>成交记录表</t>
-  </si>
-  <si>
-    <t>现价*流通股本</t>
-  </si>
-  <si>
-    <t>换仓</t>
-  </si>
-  <si>
-    <t>PB</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>取自腾讯高频，准确</t>
-  </si>
-  <si>
-    <t>涨跌</t>
-  </si>
-  <si>
-    <t>1.1%</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,12 +576,59 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -460,6 +644,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -576,6 +766,14 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -584,7 +782,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -599,7 +797,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -623,7 +821,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>界面化实现方式!$E$54:$E$56</c:f>
+              <c:f>界面化实现方式!$E$53:$E$55</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -640,7 +838,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>界面化实现方式!$G$54:$G$56</c:f>
+              <c:f>界面化实现方式!$G$53:$G$55</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -680,7 +878,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="zh-CN"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -702,13 +900,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -732,13 +930,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -790,13 +988,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -848,13 +1046,13 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -906,13 +1104,13 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -964,13 +1162,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1022,13 +1220,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1080,13 +1278,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>53</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1138,13 +1336,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>54</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>54</xdr:row>
       <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1196,7 +1394,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1488,25 +1686,25 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1519,8 +1717,8 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1729,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1545,17 +1743,17 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1569,7 +1767,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1587,6 +1785,7 @@
   <mergeCells count="1">
     <mergeCell ref="B7:B8"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1594,22 +1793,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W100"/>
+  <dimension ref="A2:W103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T71" sqref="T71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="6" width="5.140625" style="5"/>
+    <col min="1" max="6" width="5.125" style="5"/>
     <col min="7" max="7" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="5"/>
-    <col min="9" max="9" width="7.28515625" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="5.140625" style="5"/>
+    <col min="8" max="8" width="5.125" style="5"/>
+    <col min="9" max="9" width="7.25" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="5.125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1617,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1625,327 +1824,345 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C4" s="24" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C5" s="25" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="G7" s="26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="D8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
+      <c r="C11" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="5" t="s">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="C13" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
+    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D17" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D18" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D21" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D22" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D25" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D26" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D27" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D28" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D29" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D30" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D31" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
+      <c r="D32" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D33" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D34" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D35" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D36" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D37" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="D38" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" s="6"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D26" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D27" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D28" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D30" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D31" s="5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D32" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D33" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D34" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D35" s="5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D36" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D37" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D38" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D39" s="5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="s">
+      <c r="C43" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="F43" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
+      <c r="E52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="I52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="G53" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I53" s="5" t="s">
+      <c r="G53" s="7">
+        <v>50000</v>
+      </c>
+      <c r="I53" s="8">
+        <f>G53/SUM(G53:G55)</f>
+        <v>0.27777777777777779</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="C54" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K53" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="N53" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="T53" s="5" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C54" s="5" t="s">
+      <c r="E54" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="G54" s="7">
         <v>50000</v>
       </c>
       <c r="I54" s="8">
-        <f>G54/SUM(G54:G56)</f>
+        <f>G53/SUM(G53:G55)</f>
         <v>0.27777777777777779</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>81</v>
+        <v>106</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
       <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G55" s="7">
-        <v>50000</v>
+        <v>80000</v>
       </c>
       <c r="I55" s="8">
-        <f>G54/SUM(G54:G56)</f>
-        <v>0.27777777777777779</v>
-      </c>
-      <c r="K55" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="W55" s="5" t="s">
+        <f>G55/SUM(G53:G55)</f>
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="B57" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D58" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="56" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="C56" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="G56" s="7">
-        <v>80000</v>
-      </c>
-      <c r="I56" s="8">
-        <f>G56/SUM(G54:G56)</f>
-        <v>0.44444444444444442</v>
-      </c>
-    </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B58" s="5" t="s">
+      <c r="I58" s="11"/>
+      <c r="L58" s="9"/>
+    </row>
+    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D59" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D59" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="I59" s="11"/>
-      <c r="L59" s="9"/>
-    </row>
-    <row r="60" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D60" s="5" t="s">
+      <c r="L59" s="10"/>
+    </row>
+    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D61" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="L60" s="10"/>
-    </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="D62" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="17"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="H62" s="17"/>
-      <c r="I62" s="18"/>
-      <c r="J62" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="17"/>
-      <c r="L62" s="17"/>
-      <c r="M62" s="17"/>
-      <c r="N62" s="17"/>
-      <c r="O62" s="17"/>
-      <c r="P62" s="18"/>
-    </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" s="17"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="K61" s="17"/>
+      <c r="L61" s="17"/>
+      <c r="M61" s="17"/>
+      <c r="N61" s="17"/>
+      <c r="O61" s="17"/>
+      <c r="P61" s="18"/>
+    </row>
+    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+      <c r="D62" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H62" s="13"/>
+      <c r="I62" s="14"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D63" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
@@ -1957,18 +2174,20 @@
       <c r="O63" s="13"/>
       <c r="P63" s="14"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
       <c r="D64" s="12" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="12" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
-      <c r="J64" s="13"/>
+      <c r="J64" s="13" t="s">
+        <v>122</v>
+      </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
       <c r="M64" s="13"/>
@@ -1976,19 +2195,19 @@
       <c r="O64" s="13"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D65" s="12" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="12" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
       <c r="J65" s="13" t="s">
-        <v>128</v>
+        <v>149</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -1996,20 +2215,23 @@
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
       <c r="P65" s="14"/>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="Q65" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D66" s="12" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
       <c r="J66" s="13" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -2018,12 +2240,12 @@
       <c r="O66" s="13"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.25">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D67" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -2034,25 +2256,25 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D68" s="12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
@@ -2064,14 +2286,14 @@
       <c r="O68" s="13"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D69" s="12" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
@@ -2083,19 +2305,19 @@
       <c r="O69" s="13"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D70" s="12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="12" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
       <c r="J70" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
@@ -2104,19 +2326,19 @@
       <c r="O70" s="13"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D71" s="12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
       <c r="J71" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -2125,19 +2347,19 @@
       <c r="O71" s="13"/>
       <c r="P71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D72" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="12" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
       <c r="J72" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -2146,19 +2368,19 @@
       <c r="O72" s="13"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D73" s="12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
       <c r="J73" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
@@ -2167,19 +2389,19 @@
       <c r="O73" s="13"/>
       <c r="P73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
       <c r="D74" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="12" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
       <c r="J74" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -2188,177 +2410,209 @@
       <c r="O74" s="13"/>
       <c r="P74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D75" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E75" s="13"/>
-      <c r="F75" s="13"/>
-      <c r="G75" s="12" t="s">
+    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D75" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I75" s="23"/>
+      <c r="J75" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="K75" s="22"/>
+      <c r="L75" s="22"/>
+      <c r="M75" s="22"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="23"/>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D76" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="22"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H76" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I76" s="23"/>
+      <c r="J76" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="K76" s="22"/>
+      <c r="L76" s="22"/>
+      <c r="M76" s="22"/>
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="23"/>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D77" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H77" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I77" s="23"/>
+      <c r="J77" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="K77" s="22"/>
+      <c r="L77" s="22"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="22"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="23"/>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="D80" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="H75" s="13" t="s">
+      <c r="F80" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="I75" s="14"/>
-      <c r="J75" s="13" t="s">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F81" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="K75" s="13"/>
-      <c r="L75" s="13"/>
-      <c r="M75" s="13"/>
-      <c r="N75" s="13"/>
-      <c r="O75" s="13"/>
-      <c r="P75" s="14"/>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D76" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="E76" s="13"/>
-      <c r="F76" s="13"/>
-      <c r="G76" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H76" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I76" s="14"/>
-      <c r="J76" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="K76" s="13"/>
-      <c r="L76" s="13"/>
-      <c r="M76" s="13"/>
-      <c r="N76" s="13"/>
-      <c r="O76" s="13"/>
-      <c r="P76" s="14"/>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D77" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="E77" s="13"/>
-      <c r="F77" s="13"/>
-      <c r="G77" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I77" s="14"/>
-      <c r="J77" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="K77" s="13"/>
-      <c r="L77" s="13"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="13"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="14"/>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B79" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C79" s="5" t="s">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="F82" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B85" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D86" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="D80" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F81" s="5" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="6" t="s">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D87" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D88" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="5" t="s">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D89" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D90" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D91" s="5" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B93" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D86" s="5" t="s">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D94" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="D95" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L95" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="6" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D87" s="5" t="s">
+      <c r="B97" s="6" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D88" s="5" t="s">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B99" s="5" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="5" t="s">
+      <c r="C99" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C90" s="5" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C100" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D91" s="5" t="s">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D101" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D102" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="94" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="6" t="s">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D103" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B94" s="6" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="C96" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="97" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C97" s="5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="98" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D98" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D99" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="100" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="D100" s="5" t="s">
-        <v>125</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2372,19 +2626,52 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/excel/auto trader.xlsx
+++ b/excel/auto trader.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="table" sheetId="3" r:id="rId3"/>
     <sheet name="other" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>利用python自动化框架easytrader实现A股自动化交易</t>
   </si>
@@ -413,7 +413,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -448,7 +448,7 @@
         <strike/>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -459,7 +459,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -487,7 +487,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -498,7 +498,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
@@ -518,7 +518,7 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="Calibri"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
@@ -559,16 +559,19 @@
     <t>（流通市值/最小流通市值）-1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>自动成交可实现4/13/2017</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -576,13 +579,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -591,14 +594,14 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -607,7 +610,7 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -615,7 +618,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -623,7 +626,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -782,7 +785,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -797,7 +800,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -878,7 +881,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1394,7 +1397,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1686,24 +1689,24 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="B2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="B5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="B7" s="27" t="s">
         <v>3</v>
       </c>
@@ -1717,7 +1720,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="B8" s="28"/>
       <c r="C8" s="1" t="s">
         <v>5</v>
@@ -1729,7 +1732,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
@@ -1743,17 +1746,17 @@
       <c r="H9" s="1"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" s="4" t="s">
         <v>3</v>
       </c>
@@ -1767,7 +1770,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="3" t="s">
         <v>6</v>
       </c>
@@ -1795,20 +1798,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T71" sqref="T71"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="6" width="5.125" style="5"/>
+    <col min="1" max="6" width="5.140625" style="5"/>
     <col min="7" max="7" width="6" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="5"/>
-    <col min="9" max="9" width="7.25" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="5.125" style="5"/>
+    <col min="8" max="8" width="5.140625" style="5"/>
+    <col min="9" max="9" width="7.28515625" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="5.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1816,7 +1819,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="B3" s="5" t="s">
         <v>13</v>
       </c>
@@ -1824,17 +1827,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="C4" s="24" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="C5" s="25" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
@@ -1842,7 +1845,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="D8" s="5" t="s">
         <v>97</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="B11" s="5" t="s">
         <v>16</v>
       </c>
@@ -1858,137 +1861,137 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="C12" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12">
       <c r="C13" s="5" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:12">
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:12">
       <c r="D16" s="5" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="4:4">
       <c r="D17" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="4:4">
       <c r="D18" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="4:4">
       <c r="D19" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="4:4">
       <c r="D20" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="4:4">
       <c r="D21" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="4:4">
       <c r="D22" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="4:4">
       <c r="D23" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="4:4">
       <c r="D24" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="4:4">
       <c r="D25" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="26" spans="4:4">
       <c r="D26" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="4:4">
       <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="4:4">
       <c r="D28" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="4:4">
       <c r="D29" s="5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="4:4">
       <c r="D30" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="4:4">
       <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="4:4">
       <c r="D32" s="5" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:6">
       <c r="D33" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:6">
       <c r="D34" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:6">
       <c r="D35" s="5" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:6">
       <c r="D36" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:6">
       <c r="D37" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:6">
       <c r="D38" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
         <v>43</v>
       </c>
@@ -1997,7 +2000,7 @@
       </c>
       <c r="C41" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:6">
       <c r="B43" s="5" t="s">
         <v>45</v>
       </c>
@@ -2008,7 +2011,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:23">
       <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
@@ -2034,7 +2037,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:23">
       <c r="C53" s="5" t="s">
         <v>51</v>
       </c>
@@ -2055,7 +2058,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:23">
       <c r="C54" s="5" t="s">
         <v>53</v>
       </c>
@@ -2079,7 +2082,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="55" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:23">
       <c r="C55" s="5" t="s">
         <v>56</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="57" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:23">
       <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
@@ -2102,20 +2105,20 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:23">
       <c r="D58" s="5" t="s">
         <v>61</v>
       </c>
       <c r="I58" s="11"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="59" spans="2:23">
       <c r="D59" s="5" t="s">
         <v>62</v>
       </c>
       <c r="L59" s="10"/>
     </row>
-    <row r="61" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:23">
       <c r="D61" s="16" t="s">
         <v>65</v>
       </c>
@@ -2136,7 +2139,7 @@
       <c r="O61" s="17"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:23">
       <c r="D62" s="12" t="s">
         <v>47</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="O62" s="13"/>
       <c r="P62" s="14"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:23">
       <c r="D63" s="12" t="s">
         <v>48</v>
       </c>
@@ -2174,7 +2177,7 @@
       <c r="O63" s="13"/>
       <c r="P63" s="14"/>
     </row>
-    <row r="64" spans="2:23" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:23">
       <c r="D64" s="12" t="s">
         <v>66</v>
       </c>
@@ -2195,7 +2198,7 @@
       <c r="O64" s="13"/>
       <c r="P64" s="14"/>
     </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:17">
       <c r="D65" s="12" t="s">
         <v>77</v>
       </c>
@@ -2219,7 +2222,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:17">
       <c r="D66" s="12" t="s">
         <v>145</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:17">
       <c r="D67" s="12" t="s">
         <v>70</v>
       </c>
@@ -2267,7 +2270,7 @@
       <c r="O67" s="13"/>
       <c r="P67" s="14"/>
     </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:17">
       <c r="D68" s="12" t="s">
         <v>67</v>
       </c>
@@ -2286,7 +2289,7 @@
       <c r="O68" s="13"/>
       <c r="P68" s="14"/>
     </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:17">
       <c r="D69" s="12" t="s">
         <v>127</v>
       </c>
@@ -2305,7 +2308,7 @@
       <c r="O69" s="13"/>
       <c r="P69" s="14"/>
     </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:17">
       <c r="D70" s="12" t="s">
         <v>69</v>
       </c>
@@ -2326,7 +2329,7 @@
       <c r="O70" s="13"/>
       <c r="P70" s="14"/>
     </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:17">
       <c r="D71" s="12" t="s">
         <v>68</v>
       </c>
@@ -2347,7 +2350,7 @@
       <c r="O71" s="13"/>
       <c r="P71" s="14"/>
     </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:17">
       <c r="D72" s="12" t="s">
         <v>72</v>
       </c>
@@ -2368,7 +2371,7 @@
       <c r="O72" s="13"/>
       <c r="P72" s="14"/>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:17">
       <c r="D73" s="12" t="s">
         <v>73</v>
       </c>
@@ -2389,7 +2392,7 @@
       <c r="O73" s="13"/>
       <c r="P73" s="14"/>
     </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:17">
       <c r="D74" s="12" t="s">
         <v>124</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="O74" s="13"/>
       <c r="P74" s="14"/>
     </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:17">
       <c r="D75" s="21" t="s">
         <v>74</v>
       </c>
@@ -2433,7 +2436,7 @@
       <c r="O75" s="22"/>
       <c r="P75" s="23"/>
     </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="76" spans="2:17">
       <c r="D76" s="21" t="s">
         <v>75</v>
       </c>
@@ -2456,7 +2459,7 @@
       <c r="O76" s="22"/>
       <c r="P76" s="23"/>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="77" spans="2:17">
       <c r="D77" s="21" t="s">
         <v>76</v>
       </c>
@@ -2479,7 +2482,7 @@
       <c r="O77" s="22"/>
       <c r="P77" s="23"/>
     </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:17">
       <c r="B79" s="5" t="s">
         <v>96</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:17">
       <c r="D80" s="5" t="s">
         <v>98</v>
       </c>
@@ -2495,12 +2498,12 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:12">
       <c r="F81" s="20" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:12">
       <c r="F82" s="26" t="s">
         <v>133</v>
       </c>
@@ -2508,7 +2511,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="84" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:12" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
         <v>102</v>
       </c>
@@ -2516,7 +2519,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:12">
       <c r="B85" s="5" t="s">
         <v>104</v>
       </c>
@@ -2524,37 +2527,37 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:12">
       <c r="D86" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:12">
       <c r="D87" s="20" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:12">
       <c r="D88" s="20" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:12">
       <c r="D89" s="5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:12">
       <c r="D90" s="5" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:12">
       <c r="D91" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:12">
       <c r="B93" s="5" t="s">
         <v>110</v>
       </c>
@@ -2562,12 +2565,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:12">
       <c r="D94" s="19" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:12">
       <c r="D95" s="5" t="s">
         <v>129</v>
       </c>
@@ -2575,7 +2578,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:4" s="6" customFormat="1">
       <c r="A97" s="6" t="s">
         <v>113</v>
       </c>
@@ -2583,7 +2586,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:4">
       <c r="B99" s="5" t="s">
         <v>115</v>
       </c>
@@ -2591,22 +2594,22 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:4">
       <c r="C100" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:4">
       <c r="D101" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:4">
       <c r="D102" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:4">
       <c r="D103" s="5" t="s">
         <v>119</v>
       </c>
@@ -2626,14 +2629,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1">
       <c r="A2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>121</v>
       </c>
@@ -2646,27 +2649,32 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:2">
       <c r="B4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:2">
       <c r="B6" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/excel/auto trader.xlsx
+++ b/excel/auto trader.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="176">
   <si>
     <t>利用python自动化框架easytrader实现A股自动化交易</t>
   </si>
@@ -52,9 +52,6 @@
     <t>直观，出现问题及时反馈</t>
   </si>
   <si>
-    <t>实现工程比较复杂，需要长期测试完善，不过在能力氛围内</t>
-  </si>
-  <si>
     <t>定时获取股票信息</t>
   </si>
   <si>
@@ -353,9 +350,6 @@
   </si>
   <si>
     <t>换仓条件：</t>
-  </si>
-  <si>
-    <t>（持仓流通市值/最小未持仓流通市值）-1 &gt; 5%</t>
   </si>
   <si>
     <t>4.</t>
@@ -561,6 +555,87 @@
   </si>
   <si>
     <t>自动成交可实现4/13/2017</t>
+  </si>
+  <si>
+    <t>满足条件之一即可换仓：</t>
+  </si>
+  <si>
+    <t>持仓与未持仓排名相差&gt;=5，且流通市值差&gt;=5%</t>
+  </si>
+  <si>
+    <t>计算委托量，必须能够一次全部成交</t>
+  </si>
+  <si>
+    <t>①</t>
+  </si>
+  <si>
+    <t>②</t>
+  </si>
+  <si>
+    <t>※</t>
+  </si>
+  <si>
+    <t>每次只成交部分仓位（半仓或2万）</t>
+  </si>
+  <si>
+    <t>每10秒刷新一次数据，每天最多成交总仓1/3</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>leancloud挂机自动执行</t>
+  </si>
+  <si>
+    <t>每周一至周五，9:30～11:30，13:00～15:00，每10秒一次</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>其他功能</t>
+  </si>
+  <si>
+    <t>6.1</t>
+  </si>
+  <si>
+    <t>可多日价格委托</t>
+  </si>
+  <si>
+    <t>如：15日内，603991，价格：50.1，卖出</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>价格每下降一定步长，以一定金额买入或卖出</t>
+  </si>
+  <si>
+    <t>如：每下降1元（或1%）买入1万</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>止盈，止损价格自动下单</t>
+  </si>
+  <si>
+    <t>策略</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>次新股可以跟ETF一样，采用定投策略</t>
+  </si>
+  <si>
+    <t>如此可有效控制回撤，同时上涨不踏空</t>
+  </si>
+  <si>
+    <t>最小流通市值，每下降0.2亿，买入最小市值流通股票1.5万以下</t>
+  </si>
+  <si>
+    <t>实现工程比较复杂，需要长期测试完善，不过在能力范围内</t>
   </si>
 </sst>
 </file>
@@ -747,7 +822,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -783,6 +858,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -898,6 +974,86 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608077</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>94096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="3238500"/>
+          <a:ext cx="12190477" cy="9238096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>608077</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>151246</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="37118"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="11868150"/>
+          <a:ext cx="12190477" cy="5809096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1686,7 +1842,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1775,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1791,15 +1947,16 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:W103"/>
+  <dimension ref="A2:W130"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C99" sqref="C99"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.140625" defaultRowHeight="15"/>
@@ -1816,233 +1973,233 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" s="25" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="D7" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G7" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="D8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L8" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="C12" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="C13" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:12">
       <c r="D15" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:12">
       <c r="D16" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="4:4">
       <c r="D18" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="4:4">
       <c r="D19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="4:4">
       <c r="D20" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="4:4">
       <c r="D21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="4:4">
       <c r="D22" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="4:4">
       <c r="D23" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="4:4">
       <c r="D24" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="4:4">
       <c r="D25" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="4:4">
       <c r="D26" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="D33" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="D34" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="D35" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="D36" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="D37" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="D38" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="6" t="s">
         <v>43</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>44</v>
       </c>
       <c r="C41" s="6"/>
     </row>
     <row r="43" spans="1:6">
       <c r="B43" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>46</v>
-      </c>
       <c r="F43" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="52" spans="2:23">
       <c r="C52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="G52" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G52" s="5" t="s">
+      <c r="I52" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="K52" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N52" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P52" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T52" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="53" spans="2:23">
       <c r="C53" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E53" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>52</v>
       </c>
       <c r="G53" s="7">
         <v>50000</v>
@@ -2052,18 +2209,18 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="K53" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N53" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="54" spans="2:23">
       <c r="C54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>54</v>
       </c>
       <c r="G54" s="7">
         <v>50000</v>
@@ -2073,21 +2230,21 @@
         <v>0.27777777777777779</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N54" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="W54" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="2:23">
       <c r="C55" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G55" s="7">
         <v>80000</v>
@@ -2099,38 +2256,38 @@
     </row>
     <row r="57" spans="2:23">
       <c r="B57" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="5" t="s">
         <v>59</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="58" spans="2:23">
       <c r="D58" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I58" s="11"/>
       <c r="L58" s="9"/>
     </row>
     <row r="59" spans="2:23">
       <c r="D59" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L59" s="10"/>
     </row>
     <row r="61" spans="2:23">
       <c r="D61" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E61" s="17"/>
       <c r="F61" s="17"/>
       <c r="G61" s="16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H61" s="17"/>
       <c r="I61" s="18"/>
       <c r="J61" s="17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K61" s="17"/>
       <c r="L61" s="17"/>
@@ -2141,12 +2298,12 @@
     </row>
     <row r="62" spans="2:23">
       <c r="D62" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H62" s="13"/>
       <c r="I62" s="14"/>
@@ -2160,12 +2317,12 @@
     </row>
     <row r="63" spans="2:23">
       <c r="D63" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H63" s="13"/>
       <c r="I63" s="14"/>
@@ -2179,17 +2336,17 @@
     </row>
     <row r="64" spans="2:23">
       <c r="D64" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H64" s="13"/>
       <c r="I64" s="14"/>
       <c r="J64" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
@@ -2200,17 +2357,17 @@
     </row>
     <row r="65" spans="2:17">
       <c r="D65" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H65" s="13"/>
       <c r="I65" s="14"/>
       <c r="J65" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
@@ -2219,22 +2376,22 @@
       <c r="O65" s="13"/>
       <c r="P65" s="14"/>
       <c r="Q65" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="2:17">
       <c r="D66" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H66" s="13"/>
       <c r="I66" s="14"/>
       <c r="J66" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
@@ -2243,12 +2400,12 @@
       <c r="O66" s="13"/>
       <c r="P66" s="14"/>
       <c r="Q66" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="2:17">
       <c r="D67" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E67" s="13"/>
       <c r="F67" s="13"/>
@@ -2259,25 +2416,25 @@
       <c r="H67" s="13"/>
       <c r="I67" s="14"/>
       <c r="J67" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K67" s="13"/>
       <c r="L67" s="13"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="14"/>
     </row>
     <row r="68" spans="2:17">
       <c r="D68" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H68" s="13"/>
       <c r="I68" s="14"/>
@@ -2291,12 +2448,12 @@
     </row>
     <row r="69" spans="2:17">
       <c r="D69" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H69" s="13"/>
       <c r="I69" s="14"/>
@@ -2310,17 +2467,17 @@
     </row>
     <row r="70" spans="2:17">
       <c r="D70" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="14"/>
       <c r="J70" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K70" s="13"/>
       <c r="L70" s="13"/>
@@ -2331,17 +2488,17 @@
     </row>
     <row r="71" spans="2:17">
       <c r="D71" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E71" s="13"/>
       <c r="F71" s="13"/>
       <c r="G71" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="14"/>
       <c r="J71" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K71" s="13"/>
       <c r="L71" s="13"/>
@@ -2352,17 +2509,17 @@
     </row>
     <row r="72" spans="2:17">
       <c r="D72" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E72" s="13"/>
       <c r="F72" s="13"/>
       <c r="G72" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="14"/>
       <c r="J72" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K72" s="13"/>
       <c r="L72" s="13"/>
@@ -2373,17 +2530,17 @@
     </row>
     <row r="73" spans="2:17">
       <c r="D73" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E73" s="13"/>
       <c r="F73" s="13"/>
       <c r="G73" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H73" s="13"/>
       <c r="I73" s="14"/>
       <c r="J73" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
@@ -2394,17 +2551,17 @@
     </row>
     <row r="74" spans="2:17">
       <c r="D74" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E74" s="13"/>
       <c r="F74" s="13"/>
       <c r="G74" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H74" s="13"/>
       <c r="I74" s="14"/>
       <c r="J74" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
@@ -2415,19 +2572,19 @@
     </row>
     <row r="75" spans="2:17">
       <c r="D75" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E75" s="22"/>
       <c r="F75" s="22"/>
       <c r="G75" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H75" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="I75" s="23"/>
       <c r="J75" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K75" s="22"/>
       <c r="L75" s="22"/>
@@ -2438,19 +2595,19 @@
     </row>
     <row r="76" spans="2:17">
       <c r="D76" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22"/>
       <c r="G76" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H76" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="I76" s="23"/>
       <c r="J76" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K76" s="22"/>
       <c r="L76" s="22"/>
@@ -2461,19 +2618,19 @@
     </row>
     <row r="77" spans="2:17">
       <c r="D77" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E77" s="22"/>
       <c r="F77" s="22"/>
       <c r="G77" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="H77" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="I77" s="23"/>
       <c r="J77" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K77" s="22"/>
       <c r="L77" s="22"/>
@@ -2484,140 +2641,254 @@
     </row>
     <row r="79" spans="2:17">
       <c r="B79" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="2:17">
       <c r="D80" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F80" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="F80" s="19" t="s">
+    </row>
+    <row r="81" spans="1:13">
+      <c r="F81" s="20" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
-      <c r="F81" s="20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:13">
       <c r="F82" s="26" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I82" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" s="6" customFormat="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" s="6" customFormat="1">
       <c r="A84" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B84" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B84" s="6" t="s">
+    </row>
+    <row r="85" spans="1:13">
+      <c r="B85" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
-      <c r="B85" s="5" t="s">
+      <c r="C85" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="86" spans="1:12">
-      <c r="D86" s="19" t="s">
+    </row>
+    <row r="86" spans="1:13">
+      <c r="D86" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="D87" s="29" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
-      <c r="D87" s="20" t="s">
+    <row r="88" spans="1:13">
+      <c r="D88" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
-      <c r="D88" s="20" t="s">
+    <row r="89" spans="1:13">
+      <c r="D89" s="19" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="D90" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="D91" s="19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="B93" s="5" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
-      <c r="D89" s="5" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12">
-      <c r="D90" s="5" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12">
-      <c r="D91" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="93" spans="1:12">
-      <c r="B93" s="5" t="s">
+      <c r="C93" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C93" s="5" t="s">
+    </row>
+    <row r="94" spans="1:13">
+      <c r="D94" s="19"/>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="C95" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="C96" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="M96" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="C97" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="D99" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" s="29" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="E100" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="E101" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" s="6" customFormat="1">
+      <c r="A103" s="6" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
-      <c r="D94" s="19" t="s">
+      <c r="B103" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
-      <c r="D95" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="L95" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" s="6" customFormat="1">
-      <c r="A97" s="6" t="s">
+    <row r="105" spans="1:5">
+      <c r="B105" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="C105" s="5" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="B99" s="5" t="s">
+    <row r="106" spans="1:5">
+      <c r="C106" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C99" s="5" t="s">
+    </row>
+    <row r="107" spans="1:5">
+      <c r="D107" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
+      <c r="D108" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="C100" s="5" t="s">
+    <row r="109" spans="1:5">
+      <c r="D109" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="D101" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="D102" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="D103" s="5" t="s">
-        <v>119</v>
+    <row r="111" spans="1:5">
+      <c r="A111" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="B112" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="B116" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="C117" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="B119" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="C120" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="B122" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" s="6" customFormat="1">
+      <c r="A125" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="B127" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="130" spans="3:3">
+      <c r="C130" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2633,12 +2904,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2651,30 +2922,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
